--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2467.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2467.xlsx
@@ -354,7 +354,7 @@
         <v>2.586299887898337</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>3.446974274877725</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2467.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2467.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.126016149439021</v>
+        <v>1.645526885986328</v>
       </c>
       <c r="B1">
-        <v>2.586299887898337</v>
+        <v>2.436991691589355</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.691607475280762</v>
       </c>
       <c r="D1">
-        <v>3.446974274877725</v>
+        <v>3.005879163742065</v>
       </c>
       <c r="E1">
-        <v>0.9338906218579036</v>
+        <v>0.4752430617809296</v>
       </c>
     </row>
   </sheetData>
